--- a/tabula-Postdoc-CareerOutcome-GR.xlsx
+++ b/tabula-Postdoc-CareerOutcome-GR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grams\Desktop\Business Analytics\Miniproject 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70E28D29-F258-4626-A210-FB0E8F6DC715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11750369-9E73-41B2-8E83-89940B1E2543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="7170" windowWidth="20910" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-Postdoc-CareerOutcome-AD" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="283">
   <si>
     <t>Academia</t>
   </si>
@@ -4460,14 +4460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -9250,10 +9250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9261,7 +9261,7 @@
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9381,8 +9381,26 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>MAX(I2:N2)</f>
+        <v>2.1863073355542637</v>
+      </c>
+      <c r="V2">
+        <f>MATCH(U2,I2:N2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="W2" t="str">
+        <f>VLOOKUP(V2,AA$2:AB$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9443,8 +9461,26 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f t="shared" ref="U3:U8" si="0">MAX(I3:N3)</f>
+        <v>1.9167378992577004</v>
+      </c>
+      <c r="V3">
+        <f>MATCH(U3,I3:N3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W8" si="1">VLOOKUP(V3,AA$2:AB$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -9505,8 +9541,26 @@
       <c r="T4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2.0125059884683214</v>
+      </c>
+      <c r="V4">
+        <f>MATCH(U4,I4:N4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v>Government</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -9567,8 +9621,26 @@
       <c r="T5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1.1702379218210632</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V8" si="2">MATCH(U5,I5:N5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="1"/>
+        <v>Government</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39</v>
       </c>
@@ -9629,8 +9701,26 @@
       <c r="T6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2.0847003941809441</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v>Government</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -9691,8 +9781,26 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1.8560847760909738</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v>Government</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
@@ -9753,2237 +9861,2672 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1.824275780618676</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.45</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.05</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.25</v>
-      </c>
-      <c r="I9">
-        <v>1.2815062578521226</v>
-      </c>
-      <c r="J9">
-        <v>1.3544119496863534</v>
-      </c>
-      <c r="K9">
-        <v>-1.115918259078639</v>
-      </c>
-      <c r="L9">
-        <v>0.44712010090519383</v>
-      </c>
-      <c r="M9">
-        <v>0.39798405116382979</v>
-      </c>
-      <c r="N9">
-        <v>-1.2567026797777547</v>
-      </c>
-      <c r="O9">
-        <v>12.452325707390321</v>
-      </c>
-      <c r="P9">
-        <v>3.3991854530013206</v>
-      </c>
-      <c r="Q9">
-        <v>6.3984317417914731</v>
-      </c>
-      <c r="R9">
-        <v>16.400029359956722</v>
-      </c>
-      <c r="S9">
-        <v>3.3991854530013206</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="D10">
-        <v>0.14285714285714285</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.19047619047619047</v>
+        <v>0.05</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H10">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
-        <v>-0.75642012959983984</v>
+        <v>1.2815062578521226</v>
       </c>
       <c r="J10">
-        <v>1.2205695776993264</v>
+        <v>1.3544119496863534</v>
       </c>
       <c r="K10">
         <v>-1.115918259078639</v>
       </c>
       <c r="L10">
-        <v>4.5949218539491747</v>
+        <v>0.44712010090519383</v>
       </c>
       <c r="M10">
-        <v>-1.7414535430184401</v>
+        <v>0.39798405116382979</v>
       </c>
       <c r="N10">
-        <v>-0.14427518712310902</v>
+        <v>-1.2567026797777547</v>
       </c>
       <c r="O10">
-        <v>32.348822760047547</v>
+        <v>12.452325707390321</v>
       </c>
       <c r="P10">
-        <v>20.211059249604123</v>
+        <v>3.3991854530013206</v>
       </c>
       <c r="Q10">
-        <v>37.431479225706042</v>
+        <v>6.3984317417914731</v>
       </c>
       <c r="R10">
-        <v>29.368484828558387</v>
+        <v>16.400029359956722</v>
       </c>
       <c r="S10">
-        <v>20.211059249604123</v>
+        <v>3.3991854530013206</v>
       </c>
       <c r="T10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f>MAX(I10:N10)</f>
+        <v>1.3544119496863534</v>
+      </c>
+      <c r="V10">
+        <f>MATCH(U10,I10:N10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W10" t="str">
+        <f>VLOOKUP(V10,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>0.28000000000000003</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.04</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="G11">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.32</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I11">
-        <v>-0.35341446196888965</v>
+        <v>-0.75642012959983984</v>
       </c>
       <c r="J11">
-        <v>2.2913085535955418</v>
+        <v>1.2205695776993264</v>
       </c>
       <c r="K11">
-        <v>-0.52151765204471634</v>
+        <v>-1.115918259078639</v>
       </c>
       <c r="L11">
-        <v>0.15185285746816457</v>
+        <v>4.5949218539491747</v>
       </c>
       <c r="M11">
-        <v>1.2537590888367378</v>
+        <v>-1.7414535430184401</v>
       </c>
       <c r="N11">
-        <v>-0.82063110265713346</v>
+        <v>-0.14427518712310902</v>
       </c>
       <c r="O11">
-        <v>10.896084188024915</v>
+        <v>32.348822760047547</v>
       </c>
       <c r="P11">
-        <v>1.6870076342663864</v>
+        <v>20.211059249604123</v>
       </c>
       <c r="Q11">
-        <v>9.8825067929177468</v>
+        <v>37.431479225706042</v>
       </c>
       <c r="R11">
-        <v>16.11664642270085</v>
+        <v>29.368484828558387</v>
       </c>
       <c r="S11">
-        <v>1.6870076342663864</v>
+        <v>20.211059249604123</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f>MAX(I11:N11)</f>
+        <v>4.5949218539491747</v>
+      </c>
+      <c r="V11">
+        <f>MATCH(U11,I11:N11,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="W11" t="str">
+        <f>VLOOKUP(V11,AA$2:AB$7,2,FALSE)</f>
+        <v>Nonprofit</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>0.28930817610062892</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D12">
-        <v>0.15723270440251572</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>1.8867924528301886E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>6.2893081761006289E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G12">
-        <v>0.1069182389937107</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12">
-        <v>0.36477987421383645</v>
+        <v>0.32</v>
       </c>
       <c r="I12">
-        <v>-0.2638960503767665</v>
+        <v>-0.35341446196888965</v>
       </c>
       <c r="J12">
-        <v>1.4899378735222735</v>
+        <v>2.2913085535955418</v>
       </c>
       <c r="K12">
-        <v>-0.55516296942399501</v>
+        <v>-0.52151765204471634</v>
       </c>
       <c r="L12">
-        <v>0.82781057200325026</v>
+        <v>0.15185285746816457</v>
       </c>
       <c r="M12">
-        <v>0.54599545705065344</v>
+        <v>1.2537590888367378</v>
       </c>
       <c r="N12">
-        <v>-0.54167066877583792</v>
+        <v>-0.82063110265713346</v>
       </c>
       <c r="O12">
-        <v>8.20755333468977</v>
+        <v>10.896084188024915</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.6870076342663864</v>
       </c>
       <c r="Q12">
-        <v>6.7253655929407916</v>
+        <v>9.8825067929177468</v>
       </c>
       <c r="R12">
-        <v>9.8130585607676419</v>
+        <v>16.11664642270085</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.6870076342663864</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f>MAX(I12:N12)</f>
+        <v>2.2913085535955418</v>
+      </c>
+      <c r="V12">
+        <f>MATCH(U12,I12:N12,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W12" t="str">
+        <f>VLOOKUP(V12,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>0.2857142857142857</v>
+        <v>0.28930817610062892</v>
       </c>
       <c r="D13">
-        <v>4.5112781954887216E-2</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="E13">
-        <v>2.2556390977443608E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="F13">
-        <v>6.7669172932330823E-2</v>
+        <v>6.2893081761006289E-2</v>
       </c>
       <c r="G13">
-        <v>0.21052631578947367</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="H13">
-        <v>0.36842105263157893</v>
+        <v>0.36477987421383645</v>
       </c>
       <c r="I13">
-        <v>-0.29845914365557874</v>
+        <v>-0.2638960503767665</v>
       </c>
       <c r="J13">
-        <v>-0.6109576179126206</v>
+        <v>1.4899378735222735</v>
       </c>
       <c r="K13">
-        <v>-0.44554163460429019</v>
+        <v>-0.55516296942399501</v>
       </c>
       <c r="L13">
-        <v>0.96883289945934292</v>
+        <v>0.82781057200325026</v>
       </c>
       <c r="M13">
-        <v>2.7626256026284435</v>
+        <v>0.54599545705065344</v>
       </c>
       <c r="N13">
-        <v>-0.51898760570151603</v>
+        <v>-0.54167066877583792</v>
       </c>
       <c r="O13">
-        <v>17.319007533034412</v>
+        <v>8.20755333468977</v>
       </c>
       <c r="P13">
-        <v>9.3608243308719015</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.282142247962597</v>
+        <v>6.7253655929407916</v>
       </c>
       <c r="R13">
-        <v>13.619402807941134</v>
+        <v>9.8130585607676419</v>
       </c>
       <c r="S13">
-        <v>9.3608243308719015</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f>MAX(I13:N13)</f>
+        <v>1.4899378735222735</v>
+      </c>
+      <c r="V13">
+        <f>MATCH(U13,I13:N13,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W13" t="str">
+        <f>VLOOKUP(V13,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>0.23529411764705882</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D14">
-        <v>0.14705882352941177</v>
+        <v>4.5112781954887216E-2</v>
       </c>
       <c r="E14">
-        <v>2.9411764705882353E-2</v>
+        <v>2.2556390977443608E-2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>6.7669172932330823E-2</v>
       </c>
       <c r="G14">
-        <v>0.11764705882352941</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="H14">
-        <v>0.47058823529411764</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="I14">
-        <v>-0.78335901112597284</v>
+        <v>-0.29845914365557874</v>
       </c>
       <c r="J14">
-        <v>1.2993003847505189</v>
+        <v>-0.6109576179126206</v>
       </c>
       <c r="K14">
-        <v>-0.24179971932287048</v>
+        <v>-0.44554163460429019</v>
       </c>
       <c r="L14">
-        <v>-1.0292161162799522</v>
+        <v>0.96883289945934292</v>
       </c>
       <c r="M14">
-        <v>0.77553186190187717</v>
+        <v>2.7626256026284435</v>
       </c>
       <c r="N14">
-        <v>0.11747245820739598</v>
+        <v>-0.51898760570151603</v>
       </c>
       <c r="O14">
-        <v>9.7879410199675565</v>
+        <v>17.319007533034412</v>
       </c>
       <c r="P14">
-        <v>4.3400856902268119</v>
+        <v>9.3608243308719015</v>
       </c>
       <c r="Q14">
-        <v>5.066744730596727</v>
+        <v>10.282142247962597</v>
       </c>
       <c r="R14">
-        <v>7.7564794738651939</v>
+        <v>13.619402807941134</v>
       </c>
       <c r="S14">
-        <v>4.3400856902268119</v>
+        <v>9.3608243308719015</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f>MAX(I14:N14)</f>
+        <v>2.7626256026284435</v>
+      </c>
+      <c r="V14">
+        <f>MATCH(U14,I14:N14,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="W14" t="str">
+        <f>VLOOKUP(V14,AA$2:AB$7,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C15">
-        <v>0.38461538461538464</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="D15">
-        <v>0.15384615384615385</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="E15">
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>7.6923076923076927E-2</v>
-      </c>
       <c r="G15">
-        <v>0.15384615384615385</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H15">
-        <v>0.23076923076923078</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="I15">
-        <v>0.65269059638250249</v>
+        <v>-0.78335901112597284</v>
       </c>
       <c r="J15">
-        <v>1.4264809192178296</v>
+        <v>1.2993003847505189</v>
       </c>
       <c r="K15">
-        <v>-1.115918259078639</v>
+        <v>-0.24179971932287048</v>
       </c>
       <c r="L15">
-        <v>1.2420703716971955</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M15">
-        <v>1.5499889095696673</v>
+        <v>0.77553186190187717</v>
       </c>
       <c r="N15">
-        <v>-1.3765025636021011</v>
+        <v>0.11747245820739598</v>
       </c>
       <c r="O15">
-        <v>14.791097787762981</v>
+        <v>9.7879410199675565</v>
       </c>
       <c r="P15">
-        <v>3.0351626879053866</v>
+        <v>4.3400856902268119</v>
       </c>
       <c r="Q15">
-        <v>10.642715679680149</v>
+        <v>5.066744730596727</v>
       </c>
       <c r="R15">
-        <v>19.362744487171433</v>
+        <v>7.7564794738651939</v>
       </c>
       <c r="S15">
-        <v>3.0351626879053866</v>
+        <v>4.3400856902268119</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f>MAX(I15:N15)</f>
+        <v>1.2993003847505189</v>
+      </c>
+      <c r="V15">
+        <f>MATCH(U15,I15:N15,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W15" t="str">
+        <f>VLOOKUP(V15,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D16">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H16">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I16">
+        <v>0.65269059638250249</v>
+      </c>
+      <c r="J16">
+        <v>1.4264809192178296</v>
+      </c>
+      <c r="K16">
+        <v>-1.115918259078639</v>
+      </c>
+      <c r="L16">
+        <v>1.2420703716971955</v>
+      </c>
+      <c r="M16">
+        <v>1.5499889095696673</v>
+      </c>
+      <c r="N16">
+        <v>-1.3765025636021011</v>
+      </c>
+      <c r="O16">
+        <v>14.791097787762981</v>
+      </c>
+      <c r="P16">
+        <v>3.0351626879053866</v>
+      </c>
+      <c r="Q16">
+        <v>10.642715679680149</v>
+      </c>
+      <c r="R16">
+        <v>19.362744487171433</v>
+      </c>
+      <c r="S16">
+        <v>3.0351626879053866</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f>MAX(I16:N16)</f>
+        <v>1.5499889095696673</v>
+      </c>
+      <c r="V16">
+        <f>MATCH(U16,I16:N16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="W16" t="str">
+        <f>VLOOKUP(V16,AA$2:AB$7,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>0.22727272727272727</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="I16">
-        <v>-0.86050217185989919</v>
-      </c>
-      <c r="J16">
-        <v>-0.60455367666922211</v>
-      </c>
-      <c r="K16">
-        <v>0.23499221145300322</v>
-      </c>
-      <c r="L16">
-        <v>-1.0292161162799522</v>
-      </c>
-      <c r="M16">
-        <v>2.1484329918584142</v>
-      </c>
-      <c r="N16">
-        <v>0.30069580993874945</v>
-      </c>
-      <c r="O16">
-        <v>14.494035956849944</v>
-      </c>
-      <c r="P16">
-        <v>12.093114386300348</v>
-      </c>
-      <c r="Q16">
-        <v>6.5075375364751418</v>
-      </c>
-      <c r="R16">
-        <v>8.1199949114799033</v>
-      </c>
-      <c r="S16">
-        <v>6.5075375364751418</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="D17">
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="G17">
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="I17">
-        <v>0.7423612789450148</v>
-      </c>
-      <c r="J17">
-        <v>-0.60455367666922211</v>
-      </c>
-      <c r="K17">
-        <v>-1.115918259078639</v>
-      </c>
-      <c r="L17">
-        <v>-0.1344668937435001</v>
-      </c>
-      <c r="M17">
-        <v>-0.7689819092992265</v>
-      </c>
-      <c r="N17">
-        <v>0.20630802268320383</v>
-      </c>
-      <c r="O17">
-        <v>14.51183142322787</v>
-      </c>
-      <c r="P17">
-        <v>8.9285106794862763</v>
-      </c>
-      <c r="Q17">
-        <v>2.5641062854727772</v>
-      </c>
-      <c r="R17">
-        <v>4.7390775251630135</v>
-      </c>
-      <c r="S17">
-        <v>2.5641062854727772</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E18">
-        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H18">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
-        <v>0.80064722261064847</v>
+        <v>-0.86050217185989919</v>
       </c>
       <c r="J18">
-        <v>1.042113081716624</v>
+        <v>-0.60455367666922211</v>
       </c>
       <c r="K18">
-        <v>-0.12525058068876804</v>
+        <v>0.23499221145300322</v>
       </c>
       <c r="L18">
         <v>-1.0292161162799522</v>
       </c>
       <c r="M18">
-        <v>0.39798405116382979</v>
+        <v>2.1484329918584142</v>
       </c>
       <c r="N18">
-        <v>-0.73756984987225349</v>
+        <v>0.30069580993874945</v>
       </c>
       <c r="O18">
-        <v>7.5730824848901097</v>
+        <v>14.494035956849944</v>
       </c>
       <c r="P18">
-        <v>5.0274560726294792</v>
+        <v>12.093114386300348</v>
       </c>
       <c r="Q18">
-        <v>2.1671279418611791</v>
+        <v>6.5075375364751418</v>
       </c>
       <c r="R18">
-        <v>10.964579382793506</v>
+        <v>8.1199949114799033</v>
       </c>
       <c r="S18">
-        <v>2.1671279418611791</v>
+        <v>6.5075375364751418</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f>MAX(I18:N18)</f>
+        <v>2.1484329918584142</v>
+      </c>
+      <c r="V18">
+        <f>MATCH(U18,I18:N18,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="W18" t="str">
+        <f>VLOOKUP(V18,AA$2:AB$7,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>0.42424242424242425</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="D19">
-        <v>6.0606060606060608E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E19">
-        <v>6.0606060606060608E-2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="G19">
-        <v>0.12121212121212122</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="H19">
-        <v>0.30303030303030304</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="I19">
-        <v>1.0337909972731814</v>
+        <v>0.7423612789450148</v>
       </c>
       <c r="J19">
-        <v>-0.32064561487855897</v>
+        <v>-0.60455367666922211</v>
       </c>
       <c r="K19">
-        <v>0.68529570163021725</v>
+        <v>-1.115918259078639</v>
       </c>
       <c r="L19">
         <v>-0.1344668937435001</v>
       </c>
       <c r="M19">
-        <v>0.85180414689946271</v>
+        <v>-0.7689819092992265</v>
       </c>
       <c r="N19">
-        <v>-0.92634542438334466</v>
+        <v>0.20630802268320383</v>
       </c>
       <c r="O19">
-        <v>5.4076317274964492</v>
+        <v>14.51183142322787</v>
       </c>
       <c r="P19">
-        <v>7.6684135001744771</v>
+        <v>8.9285106794862763</v>
       </c>
       <c r="Q19">
-        <v>2.092985472331983</v>
+        <v>2.5641062854727772</v>
       </c>
       <c r="R19">
-        <v>9.5575532605704332</v>
+        <v>4.7390775251630135</v>
       </c>
       <c r="S19">
-        <v>2.092985472331983</v>
+        <v>2.5641062854727772</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f>MAX(I19:N19)</f>
+        <v>0.7423612789450148</v>
+      </c>
+      <c r="V19">
+        <f>MATCH(U19,I19:N19,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" t="str">
+        <f>VLOOKUP(V19,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>0.4</v>
       </c>
       <c r="D20">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E20">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E20">
-        <v>6.6666666666666666E-2</v>
-      </c>
       <c r="F20">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6.6666666666666666E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H20">
-        <v>0.36666666666666664</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20">
         <v>0.80064722261064847</v>
       </c>
       <c r="J20">
-        <v>-0.83168012610175257</v>
+        <v>1.042113081716624</v>
       </c>
       <c r="K20">
-        <v>0.86541709770110276</v>
+        <v>-0.12525058068876804</v>
       </c>
       <c r="L20">
-        <v>0.93923217330024233</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M20">
-        <v>-0.31516181356359363</v>
+        <v>0.39798405116382979</v>
       </c>
       <c r="N20">
-        <v>-0.5299167179100529</v>
+        <v>-0.73756984987225349</v>
       </c>
       <c r="O20">
-        <v>5.3504712901547871</v>
+        <v>7.5730824848901097</v>
       </c>
       <c r="P20">
-        <v>9.295355016682489</v>
+        <v>5.0274560726294792</v>
       </c>
       <c r="Q20">
-        <v>4.6175680101134775</v>
+        <v>2.1671279418611791</v>
       </c>
       <c r="R20">
-        <v>6.6928250773281928</v>
+        <v>10.964579382793506</v>
       </c>
       <c r="S20">
-        <v>4.6175680101134775</v>
+        <v>2.1671279418611791</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f>MAX(I20:N20)</f>
+        <v>1.042113081716624</v>
+      </c>
+      <c r="V20">
+        <f>MATCH(U20,I20:N20,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W20" t="str">
+        <f>VLOOKUP(V20,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="E21">
-        <v>7.1428571428571425E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G21">
-        <v>7.1428571428571425E-2</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="H21">
-        <v>0.35714285714285715</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="I21">
-        <v>1.7623652930935967</v>
+        <v>1.0337909972731814</v>
       </c>
       <c r="J21">
-        <v>-1.4562778620412116</v>
+        <v>-0.32064561487855897</v>
       </c>
       <c r="K21">
-        <v>1.0069410517567985</v>
+        <v>0.68529570163021725</v>
       </c>
       <c r="L21">
-        <v>-1.0292161162799522</v>
+        <v>-0.1344668937435001</v>
       </c>
       <c r="M21">
-        <v>-0.21328383288824748</v>
+        <v>0.85180414689946271</v>
       </c>
       <c r="N21">
-        <v>-0.58924618418496721</v>
+        <v>-0.92634542438334466</v>
       </c>
       <c r="O21">
-        <v>11.291264000598046</v>
+        <v>5.4076317274964492</v>
       </c>
       <c r="P21">
-        <v>19.253407756306064</v>
+        <v>7.6684135001744771</v>
       </c>
       <c r="Q21">
-        <v>4.4719091180457129</v>
+        <v>2.092985472331983</v>
       </c>
       <c r="R21">
-        <v>12.032173911205716</v>
+        <v>9.5575532605704332</v>
       </c>
       <c r="S21">
-        <v>4.4719091180457129</v>
+        <v>2.092985472331983</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f>MAX(I21:N21)</f>
+        <v>1.0337909972731814</v>
+      </c>
+      <c r="V21">
+        <f>MATCH(U21,I21:N21,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W21" t="str">
+        <f>VLOOKUP(V21,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>8.3333333333333329E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E22">
-        <v>4.1666666666666664E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F22">
-        <v>4.1666666666666664E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G22">
-        <v>4.1666666666666664E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H22">
-        <v>0.41666666666666669</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="I22">
-        <v>0.56021770498991108</v>
+        <v>0.80064722261064847</v>
       </c>
       <c r="J22">
-        <v>0.10521647780743558</v>
+        <v>-0.83168012610175257</v>
       </c>
       <c r="K22">
-        <v>0.12241633890869963</v>
+        <v>0.86541709770110276</v>
       </c>
       <c r="L22">
-        <v>0.20106406470766933</v>
+        <v>0.93923217330024233</v>
       </c>
       <c r="M22">
-        <v>-0.85002121210916104</v>
+        <v>-0.31516181356359363</v>
       </c>
       <c r="N22">
-        <v>-0.21843701996675183</v>
+        <v>-0.5299167179100529</v>
       </c>
       <c r="O22">
-        <v>5.5809349545153859</v>
+        <v>5.3504712901547871</v>
       </c>
       <c r="P22">
-        <v>5.5018842613173371</v>
+        <v>9.295355016682489</v>
       </c>
       <c r="Q22">
-        <v>2.3513065175568366</v>
+        <v>4.6175680101134775</v>
       </c>
       <c r="R22">
-        <v>4.6325571171151161</v>
+        <v>6.6928250773281928</v>
       </c>
       <c r="S22">
-        <v>2.3513065175568366</v>
+        <v>4.6175680101134775</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f>MAX(I22:N22)</f>
+        <v>0.93923217330024233</v>
+      </c>
+      <c r="V22">
+        <f>MATCH(U22,I22:N22,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="W22" t="str">
+        <f>VLOOKUP(V22,AA$2:AB$7,2,FALSE)</f>
+        <v>Nonprofit</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>0.38461538461538464</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>0.11538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3.8461538461538464E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F23">
-        <v>3.8461538461538464E-2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3.8461538461538464E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="H23">
-        <v>0.38461538461538464</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I23">
-        <v>0.65269059638250249</v>
+        <v>1.7623652930935967</v>
       </c>
       <c r="J23">
-        <v>0.70579122390306925</v>
+        <v>-1.4562778620412116</v>
       </c>
       <c r="K23">
-        <v>2.7159831371212174E-2</v>
+        <v>1.0069410517567985</v>
       </c>
       <c r="L23">
-        <v>0.10642712770862164</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M23">
-        <v>-0.91859292987141317</v>
+        <v>-0.21328383288824748</v>
       </c>
       <c r="N23">
-        <v>-0.41810349300732924</v>
+        <v>-0.58924618418496721</v>
       </c>
       <c r="O23">
-        <v>5.4801591413378343</v>
+        <v>11.291264000598046</v>
       </c>
       <c r="P23">
-        <v>4.4747989571891669</v>
+        <v>19.253407756306064</v>
       </c>
       <c r="Q23">
-        <v>3.1527088470156976</v>
+        <v>4.4719091180457129</v>
       </c>
       <c r="R23">
-        <v>6.9133462312661713</v>
+        <v>12.032173911205716</v>
       </c>
       <c r="S23">
-        <v>3.1527088470156976</v>
+        <v>4.4719091180457129</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f>MAX(I23:N23)</f>
+        <v>1.7623652930935967</v>
+      </c>
+      <c r="V23">
+        <f>MATCH(U23,I23:N23,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W23" t="str">
+        <f>VLOOKUP(V23,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>0.31654676258992803</v>
+        <v>0.375</v>
       </c>
       <c r="D24">
-        <v>7.9136690647482008E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E24">
-        <v>3.5971223021582732E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F24">
-        <v>2.1582733812949641E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G24">
-        <v>4.3165467625899283E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H24">
-        <v>0.50359712230215825</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I24">
-        <v>-1.9376419650500183E-3</v>
+        <v>0.56021770498991108</v>
       </c>
       <c r="J24">
-        <v>2.6580072203546842E-2</v>
+        <v>0.10521647780743558</v>
       </c>
       <c r="K24">
-        <v>-4.6852419089569657E-2</v>
+        <v>0.12241633890869963</v>
       </c>
       <c r="L24">
-        <v>-0.3919486844014719</v>
+        <v>0.20106406470766933</v>
       </c>
       <c r="M24">
-        <v>-0.81795530092537394</v>
+        <v>-0.85002121210916104</v>
       </c>
       <c r="N24">
-        <v>0.32310442130157668</v>
+        <v>-0.21843701996675183</v>
       </c>
       <c r="O24">
-        <v>7.5379800981983642</v>
+        <v>5.5809349545153859</v>
       </c>
       <c r="P24">
-        <v>6.5644281481860451</v>
+        <v>5.5018842613173371</v>
       </c>
       <c r="Q24">
-        <v>2.1287324525298215</v>
+        <v>2.3513065175568366</v>
       </c>
       <c r="R24">
-        <v>2.3074588080244594</v>
+        <v>4.6325571171151161</v>
       </c>
       <c r="S24">
-        <v>2.1287324525298215</v>
+        <v>2.3513065175568366</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f>MAX(I24:N24)</f>
+        <v>0.56021770498991108</v>
+      </c>
+      <c r="V24">
+        <f>MATCH(U24,I24:N24,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W24" t="str">
+        <f>VLOOKUP(V24,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C25">
-        <v>0.38541666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="D25">
-        <v>6.25E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E25">
-        <v>3.125E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="F25">
-        <v>1.0416666666666666E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="G25">
-        <v>9.375E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="H25">
-        <v>0.41666666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I25">
-        <v>0.66039667066521845</v>
+        <v>0.65269059638250249</v>
       </c>
       <c r="J25">
-        <v>-0.28515710715472614</v>
+        <v>0.70579122390306925</v>
       </c>
       <c r="K25">
-        <v>-0.18716731058813493</v>
+        <v>2.7159831371212174E-2</v>
       </c>
       <c r="L25">
-        <v>-0.7216460710330469</v>
+        <v>0.10642712770862164</v>
       </c>
       <c r="M25">
-        <v>0.26426920152743782</v>
+        <v>-0.91859292987141317</v>
       </c>
       <c r="N25">
-        <v>-0.21843701996675183</v>
+        <v>-0.41810349300732924</v>
       </c>
       <c r="O25">
-        <v>8.3922144890720602</v>
+        <v>5.4801591413378343</v>
       </c>
       <c r="P25">
-        <v>6.7253655929407916</v>
+        <v>4.4747989571891669</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3.1527088470156976</v>
       </c>
       <c r="R25">
-        <v>5.128411515889379</v>
+        <v>6.9133462312661713</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3.1527088470156976</v>
       </c>
       <c r="T25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f>MAX(I25:N25)</f>
+        <v>0.70579122390306925</v>
+      </c>
+      <c r="V25">
+        <f>MATCH(U25,I25:N25,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="W25" t="str">
+        <f>VLOOKUP(V25,AA$2:AB$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>0.32291666666666669</v>
+        <v>0.31654676258992803</v>
       </c>
       <c r="D26">
-        <v>2.0833333333333332E-2</v>
+        <v>7.9136690647482008E-2</v>
       </c>
       <c r="E26">
-        <v>5.2083333333333336E-2</v>
+        <v>3.5971223021582732E-2</v>
       </c>
       <c r="F26">
-        <v>2.0833333333333332E-2</v>
+        <v>2.1582733812949641E-2</v>
       </c>
       <c r="G26">
-        <v>8.3333333333333329E-2</v>
+        <v>4.3165467625899283E-2</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0.50359712230215825</v>
       </c>
       <c r="I26">
-        <v>5.9322876613375625E-2</v>
+        <v>-1.9376419650500183E-3</v>
       </c>
       <c r="J26">
-        <v>-1.0659042770790497</v>
+        <v>2.6580072203546842E-2</v>
       </c>
       <c r="K26">
-        <v>0.43199998840553439</v>
+        <v>-4.6852419089569657E-2</v>
       </c>
       <c r="L26">
-        <v>-0.41407602578614144</v>
+        <v>-0.3919486844014719</v>
       </c>
       <c r="M26">
-        <v>4.1411118800117941E-2</v>
+        <v>-0.81795530092537394</v>
       </c>
       <c r="N26">
-        <v>0.30069580993874945</v>
+        <v>0.32310442130157668</v>
       </c>
       <c r="O26">
-        <v>8.1943547198835631</v>
+        <v>7.5379800981983642</v>
       </c>
       <c r="P26">
-        <v>10.117759239504455</v>
+        <v>6.5644281481860451</v>
       </c>
       <c r="Q26">
-        <v>1.7679879462396082</v>
+        <v>2.1287324525298215</v>
       </c>
       <c r="R26">
-        <v>2.0034288665261419</v>
+        <v>2.3074588080244594</v>
       </c>
       <c r="S26">
-        <v>1.7679879462396082</v>
+        <v>2.1287324525298215</v>
       </c>
       <c r="T26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f>MAX(I26:N26)</f>
+        <v>0.32310442130157668</v>
+      </c>
+      <c r="V26">
+        <f>MATCH(U26,I26:N26,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W26" t="str">
+        <f>VLOOKUP(V26,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>0.38834951456310679</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D27">
-        <v>2.9126213592233011E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E27">
-        <v>1.9417475728155338E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F27">
-        <v>9.7087378640776691E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G27">
-        <v>7.7669902912621352E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H27">
-        <v>0.47572815533980584</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I27">
-        <v>0.68860239886506192</v>
+        <v>0.66039667066521845</v>
       </c>
       <c r="J27">
-        <v>-0.91051285005527649</v>
+        <v>-0.28515710715472614</v>
       </c>
       <c r="K27">
-        <v>-0.53883029108453939</v>
+        <v>-0.18716731058813493</v>
       </c>
       <c r="L27">
-        <v>-0.74254888964205978</v>
+        <v>-0.7216460710330469</v>
       </c>
       <c r="M27">
-        <v>-7.9754440740949159E-2</v>
+        <v>0.26426920152743782</v>
       </c>
       <c r="N27">
-        <v>0.1494920730730695</v>
+        <v>-0.21843701996675183</v>
       </c>
       <c r="O27">
-        <v>12.438697046939639</v>
+        <v>8.3922144890720602</v>
       </c>
       <c r="P27">
-        <v>10.00498143759906</v>
+        <v>6.7253655929407916</v>
       </c>
       <c r="Q27">
-        <v>0.76969323190411099</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>4.176750772901979</v>
+        <v>5.128411515889379</v>
       </c>
       <c r="S27">
-        <v>0.76969323190411099</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f>MAX(I27:N27)</f>
+        <v>0.66039667066521845</v>
+      </c>
+      <c r="V27">
+        <f>MATCH(U27,I27:N27,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W27" t="str">
+        <f>VLOOKUP(V27,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C28">
-        <v>0.41935483870967744</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="D28">
-        <v>0.12903225806451613</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="F28">
-        <v>3.2258064516129031E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G28">
-        <v>6.4516129032258063E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H28">
-        <v>0.35483870967741937</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
-        <v>0.98678620399444483</v>
+        <v>5.9322876613375625E-2</v>
       </c>
       <c r="J28">
-        <v>0.96151982546637116</v>
+        <v>-1.0659042770790497</v>
       </c>
       <c r="K28">
-        <v>-1.115918259078639</v>
+        <v>0.43199998840553439</v>
       </c>
       <c r="L28">
-        <v>-7.6741137450825836E-2</v>
+        <v>-0.41407602578614144</v>
       </c>
       <c r="M28">
-        <v>-0.36117122419116932</v>
+        <v>4.1411118800117941E-2</v>
       </c>
       <c r="N28">
-        <v>-0.60360008731599479</v>
+        <v>0.30069580993874945</v>
       </c>
       <c r="O28">
-        <v>11.391695149407948</v>
+        <v>8.1943547198835631</v>
       </c>
       <c r="P28">
-        <v>3.8028786652982443</v>
+        <v>10.117759239504455</v>
       </c>
       <c r="Q28">
-        <v>3.4787405140500676</v>
+        <v>1.7679879462396082</v>
       </c>
       <c r="R28">
-        <v>10.414202294609538</v>
+        <v>2.0034288665261419</v>
       </c>
       <c r="S28">
-        <v>3.4787405140500676</v>
+        <v>1.7679879462396082</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f>MAX(I28:N28)</f>
+        <v>0.43199998840553439</v>
+      </c>
+      <c r="V28">
+        <f>MATCH(U28,I28:N28,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="W28" t="str">
+        <f>VLOOKUP(V28,AA$2:AB$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C29">
-        <v>0.51515151515151514</v>
+        <v>0.38834951456310679</v>
       </c>
       <c r="D29">
-        <v>3.0303030303030304E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="E29">
-        <v>6.0606060606060608E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="F29">
-        <v>3.0303030303030304E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="G29">
-        <v>3.0303030303030304E-2</v>
+        <v>7.7669902912621352E-2</v>
       </c>
       <c r="H29">
-        <v>0.33333333333333331</v>
+        <v>0.47572815533980584</v>
       </c>
       <c r="I29">
-        <v>1.9080801522576796</v>
+        <v>0.68860239886506192</v>
       </c>
       <c r="J29">
-        <v>-0.88846173845988519</v>
+        <v>-0.91051285005527649</v>
       </c>
       <c r="K29">
-        <v>0.68529570163021725</v>
+        <v>-0.53883029108453939</v>
       </c>
       <c r="L29">
-        <v>-0.1344668937435001</v>
+        <v>-0.74254888964205978</v>
       </c>
       <c r="M29">
-        <v>-1.0931391205389644</v>
+        <v>-7.9754440740949159E-2</v>
       </c>
       <c r="N29">
-        <v>-0.73756984987225349</v>
+        <v>0.1494920730730695</v>
       </c>
       <c r="O29">
-        <v>9.6104914972157651</v>
+        <v>12.438697046939639</v>
       </c>
       <c r="P29">
-        <v>15.564119627368942</v>
+        <v>10.00498143759906</v>
       </c>
       <c r="Q29">
-        <v>5.1387178902253092</v>
+        <v>0.76969323190411099</v>
       </c>
       <c r="R29">
-        <v>11.736204197916102</v>
+        <v>4.176750772901979</v>
       </c>
       <c r="S29">
-        <v>5.1387178902253092</v>
+        <v>0.76969323190411099</v>
       </c>
       <c r="T29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f>MAX(I29:N29)</f>
+        <v>0.68860239886506192</v>
+      </c>
+      <c r="V29">
+        <f>MATCH(U29,I29:N29,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W29" t="str">
+        <f>VLOOKUP(V29,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C30">
-        <v>0.43373493975903615</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="D30">
-        <v>3.614457831325301E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E30">
-        <v>1.2048192771084338E-2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>3.614457831325301E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G30">
-        <v>8.4337349397590355E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="H30">
-        <v>0.39759036144578314</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="I30">
-        <v>1.1250822343398357</v>
+        <v>0.98678620399444483</v>
       </c>
       <c r="J30">
-        <v>-0.77900320861288264</v>
+        <v>0.96151982546637116</v>
       </c>
       <c r="K30">
-        <v>-0.75784560423892644</v>
+        <v>-1.115918259078639</v>
       </c>
       <c r="L30">
-        <v>3.8014884094852028E-2</v>
+        <v>-7.6741137450825836E-2</v>
       </c>
       <c r="M30">
-        <v>6.2891415930461977E-2</v>
+        <v>-0.36117122419116932</v>
       </c>
       <c r="N30">
-        <v>-0.33727465572825222</v>
+        <v>-0.60360008731599479</v>
       </c>
       <c r="O30">
-        <v>12.194025519091735</v>
+        <v>11.391695149407948</v>
       </c>
       <c r="P30">
-        <v>8.0173790334055592</v>
+        <v>3.8028786652982443</v>
       </c>
       <c r="Q30">
-        <v>1.4172505228083518</v>
+        <v>3.4787405140500676</v>
       </c>
       <c r="R30">
-        <v>6.5586223358507194</v>
+        <v>10.414202294609538</v>
       </c>
       <c r="S30">
-        <v>1.4172505228083518</v>
+        <v>3.4787405140500676</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f>MAX(I30:N30)</f>
+        <v>0.98678620399444483</v>
+      </c>
+      <c r="V30">
+        <f>MATCH(U30,I30:N30,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W30" t="str">
+        <f>VLOOKUP(V30,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C31">
-        <v>0.4375</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="D31">
-        <v>0.10416666666666667</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E31">
-        <v>4.1666666666666664E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G31">
-        <v>0.125</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="H31">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I31">
-        <v>1.1612914990417538</v>
+        <v>1.9080801522576796</v>
       </c>
       <c r="J31">
-        <v>0.49559006276959755</v>
+        <v>-0.88846173845988519</v>
       </c>
       <c r="K31">
-        <v>0.12241633890869963</v>
+        <v>0.68529570163021725</v>
       </c>
       <c r="L31">
-        <v>-1.0292161162799522</v>
+        <v>-0.1344668937435001</v>
       </c>
       <c r="M31">
-        <v>0.93284344970939703</v>
+        <v>-1.0931391205389644</v>
       </c>
       <c r="N31">
-        <v>-0.99713626482500395</v>
+        <v>-0.73756984987225349</v>
       </c>
       <c r="O31">
-        <v>8.1404587090205229</v>
+        <v>9.6104914972157651</v>
       </c>
       <c r="P31">
-        <v>7.2846492384514203</v>
+        <v>15.564119627368942</v>
       </c>
       <c r="Q31">
-        <v>2.104267180483046</v>
+        <v>5.1387178902253092</v>
       </c>
       <c r="R31">
-        <v>12.652678351325097</v>
+        <v>11.736204197916102</v>
       </c>
       <c r="S31">
-        <v>2.104267180483046</v>
+        <v>5.1387178902253092</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f>MAX(I31:N31)</f>
+        <v>1.9080801522576796</v>
+      </c>
+      <c r="V31">
+        <f>MATCH(U31,I31:N31,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W31" t="str">
+        <f>VLOOKUP(V31,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C32">
-        <v>0.32500000000000001</v>
+        <v>0.43373493975903615</v>
       </c>
       <c r="D32">
-        <v>2.5000000000000001E-2</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="G32">
-        <v>0.05</v>
+        <v>8.4337349397590355E-2</v>
       </c>
       <c r="H32">
-        <v>0.6</v>
+        <v>0.39759036144578314</v>
       </c>
       <c r="I32">
-        <v>7.9358669748436986E-2</v>
+        <v>1.1250822343398357</v>
       </c>
       <c r="J32">
-        <v>-0.98782956008661726</v>
+        <v>-0.77900320861288264</v>
       </c>
       <c r="K32">
-        <v>-1.115918259078639</v>
+        <v>-0.75784560423892644</v>
       </c>
       <c r="L32">
-        <v>-1.0292161162799522</v>
+        <v>3.8014884094852028E-2</v>
       </c>
       <c r="M32">
-        <v>-0.67173474592730509</v>
+        <v>6.2891415930461977E-2</v>
       </c>
       <c r="N32">
-        <v>0.92365520582535099</v>
+        <v>-0.33727465572825222</v>
       </c>
       <c r="O32">
-        <v>18.786618209785765</v>
+        <v>12.194025519091735</v>
       </c>
       <c r="P32">
-        <v>13.650196639833242</v>
+        <v>8.0173790334055592</v>
       </c>
       <c r="Q32">
-        <v>3.9690094335395054</v>
+        <v>1.4172505228083518</v>
       </c>
       <c r="R32">
-        <v>3.4663746947484322</v>
+        <v>6.5586223358507194</v>
       </c>
       <c r="S32">
-        <v>3.4663746947484322</v>
+        <v>1.4172505228083518</v>
       </c>
       <c r="T32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <f>MAX(I32:N32)</f>
+        <v>1.1250822343398357</v>
+      </c>
+      <c r="V32">
+        <f>MATCH(U32,I32:N32,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W32" t="str">
+        <f>VLOOKUP(V32,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.4375</v>
       </c>
       <c r="D33">
-        <v>0.04</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H33">
-        <v>0.76</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I33">
-        <v>-1.1227889183552486</v>
+        <v>1.1612914990417538</v>
       </c>
       <c r="J33">
-        <v>-0.70676057891386079</v>
+        <v>0.49559006276959755</v>
       </c>
       <c r="K33">
-        <v>-1.115918259078639</v>
+        <v>0.12241633890869963</v>
       </c>
       <c r="L33">
         <v>-1.0292161162799522</v>
       </c>
       <c r="M33">
-        <v>-1.7414535430184401</v>
+        <v>0.93284344970939703</v>
       </c>
       <c r="N33">
-        <v>1.9203902392439138</v>
+        <v>-0.99713626482500395</v>
       </c>
       <c r="O33">
-        <v>26.042308466184632</v>
+        <v>8.1404587090205229</v>
       </c>
       <c r="P33">
-        <v>20.620342508187495</v>
+        <v>7.2846492384514203</v>
       </c>
       <c r="Q33">
-        <v>12.912183762076078</v>
+        <v>2.104267180483046</v>
       </c>
       <c r="R33">
-        <v>5.2492920250365129</v>
+        <v>12.652678351325097</v>
       </c>
       <c r="S33">
-        <v>5.2492920250365129</v>
+        <v>2.104267180483046</v>
       </c>
       <c r="T33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34">
-        <v>0.25222551928783382</v>
-      </c>
-      <c r="D34">
-        <v>5.0445103857566766E-2</v>
-      </c>
-      <c r="E34">
-        <v>1.7804154302670624E-2</v>
-      </c>
-      <c r="F34">
-        <v>7.1216617210682495E-2</v>
-      </c>
-      <c r="G34">
-        <v>8.3086053412462904E-2</v>
-      </c>
-      <c r="H34">
-        <v>0.52522255192878342</v>
-      </c>
-      <c r="I34">
-        <v>-0.62052666196059314</v>
-      </c>
-      <c r="J34">
-        <v>-0.51104093228119951</v>
-      </c>
-      <c r="K34">
-        <v>-0.58677825281698681</v>
-      </c>
-      <c r="L34">
-        <v>1.0735773087908789</v>
-      </c>
-      <c r="M34">
-        <v>3.6120719210151905E-2</v>
-      </c>
-      <c r="N34">
-        <v>0.45782206706148304</v>
-      </c>
-      <c r="O34">
-        <v>11.604147397202336</v>
-      </c>
-      <c r="P34">
-        <v>5.4514603667280968</v>
-      </c>
-      <c r="Q34">
-        <v>5.5836820579063957</v>
-      </c>
-      <c r="R34">
-        <v>2.0825400367599172</v>
-      </c>
-      <c r="S34">
-        <v>2.0825400367599172</v>
-      </c>
-      <c r="T34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <f>MAX(I33:N33)</f>
+        <v>1.1612914990417538</v>
+      </c>
+      <c r="V33">
+        <f>MATCH(U33,I33:N33,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="W33" t="str">
+        <f>VLOOKUP(V33,AA$2:AB$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>0.19607843137254902</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D35">
-        <v>9.8039215686274508E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E35">
-        <v>1.9607843137254902E-2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>3.9215686274509803E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>7.8431372549019607E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H35">
-        <v>0.56862745098039214</v>
+        <v>0.6</v>
       </c>
       <c r="I35">
-        <v>-1.1605033524918349</v>
+        <v>7.9358669748436986E-2</v>
       </c>
       <c r="J35">
-        <v>0.38077430248660865</v>
+        <v>-0.98782956008661726</v>
       </c>
       <c r="K35">
-        <v>-0.53317256590812656</v>
+        <v>-1.115918259078639</v>
       </c>
       <c r="L35">
-        <v>0.12869464229663283</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M35">
-        <v>-6.3463273071561868E-2</v>
+        <v>-0.67173474592730509</v>
       </c>
       <c r="N35">
-        <v>0.72821696397857394</v>
+        <v>0.92365520582535099</v>
       </c>
       <c r="O35">
-        <v>10.948034090064922</v>
+        <v>18.786618209785765</v>
       </c>
       <c r="P35">
-        <v>4.5074496860797755</v>
+        <v>13.650196639833242</v>
       </c>
       <c r="Q35">
-        <v>5.6055028423616751</v>
+        <v>3.9690094335395054</v>
       </c>
       <c r="R35">
-        <v>2.0050575355037163</v>
+        <v>3.4663746947484322</v>
       </c>
       <c r="S35">
-        <v>2.0050575355037163</v>
+        <v>3.4663746947484322</v>
       </c>
       <c r="T35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f>MAX(I35:N35)</f>
+        <v>0.92365520582535099</v>
+      </c>
+      <c r="V35">
+        <f>MATCH(U35,I35:N35,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W35" t="str">
+        <f>VLOOKUP(V35,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C36">
-        <v>0.10526315789473684</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>3.5087719298245612E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E36">
-        <v>1.7543859649122806E-2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.7543859649122806E-2</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1.7543859649122806E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.80701754385964908</v>
+        <v>0.76</v>
       </c>
       <c r="I36">
-        <v>-2.0338902482864629</v>
+        <v>-1.1227889183552486</v>
       </c>
       <c r="J36">
-        <v>-0.79880656105230741</v>
+        <v>-0.70676057891386079</v>
       </c>
       <c r="K36">
-        <v>-0.59451421782081215</v>
+        <v>-1.115918259078639</v>
       </c>
       <c r="L36">
-        <v>-0.51120340849569057</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M36">
-        <v>-1.3661136142145331</v>
+        <v>-1.7414535430184401</v>
       </c>
       <c r="N36">
-        <v>2.2132904464327017</v>
+        <v>1.9203902392439138</v>
       </c>
       <c r="O36">
-        <v>25.700741964231064</v>
+        <v>26.042308466184632</v>
       </c>
       <c r="P36">
-        <v>21.411709354877807</v>
+        <v>20.620342508187495</v>
       </c>
       <c r="Q36">
-        <v>16.30468197687949</v>
+        <v>12.912183762076078</v>
       </c>
       <c r="R36">
-        <v>4.5488039298924079</v>
+        <v>5.2492920250365129</v>
       </c>
       <c r="S36">
-        <v>4.5488039298924079</v>
+        <v>5.2492920250365129</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f>MAX(I36:N36)</f>
+        <v>1.9203902392439138</v>
+      </c>
+      <c r="V36">
+        <f>MATCH(U36,I36:N36,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W36" t="str">
+        <f>VLOOKUP(V36,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>0.22641509433962265</v>
+        <v>0.25222551928783382</v>
       </c>
       <c r="D37">
-        <v>3.7735849056603772E-2</v>
+        <v>5.0445103857566766E-2</v>
       </c>
       <c r="E37">
-        <v>3.7735849056603772E-2</v>
+        <v>1.7804154302670624E-2</v>
       </c>
       <c r="F37">
-        <v>1.8867924528301886E-2</v>
+        <v>7.1216617210682495E-2</v>
       </c>
       <c r="G37">
-        <v>7.5471698113207544E-2</v>
+        <v>8.3086053412462904E-2</v>
       </c>
       <c r="H37">
-        <v>0.60377358490566035</v>
+        <v>0.52522255192878342</v>
       </c>
       <c r="I37">
-        <v>-0.86875018275597926</v>
+        <v>-0.62052666196059314</v>
       </c>
       <c r="J37">
-        <v>-0.7491860855059751</v>
+        <v>-0.51104093228119951</v>
       </c>
       <c r="K37">
-        <v>5.5923202306488425E-3</v>
+        <v>-0.58677825281698681</v>
       </c>
       <c r="L37">
-        <v>-0.47210810979499152</v>
+        <v>1.0735773087908789</v>
       </c>
       <c r="M37">
-        <v>-0.12678366061672713</v>
+        <v>3.6120719210151905E-2</v>
       </c>
       <c r="N37">
-        <v>0.94716310755692079</v>
+        <v>0.45782206706148304</v>
       </c>
       <c r="O37">
-        <v>11.451794831608046</v>
+        <v>11.604147397202336</v>
       </c>
       <c r="P37">
-        <v>10.053017454232851</v>
+        <v>5.4514603667280968</v>
       </c>
       <c r="Q37">
-        <v>4.1645844597242379</v>
+        <v>5.5836820579063957</v>
       </c>
       <c r="R37">
-        <v>0.37136689650475152</v>
+        <v>2.0825400367599172</v>
       </c>
       <c r="S37">
-        <v>0.37136689650475152</v>
+        <v>2.0825400367599172</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f>MAX(I37:N37)</f>
+        <v>1.0735773087908789</v>
+      </c>
+      <c r="V37">
+        <f>MATCH(U37,I37:N37,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="W37" t="str">
+        <f>VLOOKUP(V37,AA$2:AB$7,2,FALSE)</f>
+        <v>Nonprofit</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C38">
-        <v>0.15135135135135136</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="D38">
-        <v>4.8648648648648651E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="E38">
-        <v>3.783783783783784E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="F38">
-        <v>3.2432432432432434E-2</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="G38">
-        <v>5.9459459459459463E-2</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="H38">
-        <v>0.67027027027027031</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="I38">
-        <v>-1.5906517634550614</v>
+        <v>-1.1605033524918349</v>
       </c>
       <c r="J38">
-        <v>-0.54470278796740657</v>
+        <v>0.38077430248660865</v>
       </c>
       <c r="K38">
-        <v>8.6234299044578334E-3</v>
+        <v>-0.53317256590812656</v>
       </c>
       <c r="L38">
-        <v>-7.159262405174939E-2</v>
+        <v>0.12869464229663283</v>
       </c>
       <c r="M38">
-        <v>-0.46935551404519854</v>
+        <v>-6.3463273071561868E-2</v>
       </c>
       <c r="N38">
-        <v>1.3614104569889092</v>
+        <v>0.72821696397857394</v>
       </c>
       <c r="O38">
-        <v>13.964360094706823</v>
+        <v>10.948034090064922</v>
       </c>
       <c r="P38">
-        <v>11.679479922462054</v>
+        <v>4.5074496860797755</v>
       </c>
       <c r="Q38">
-        <v>8.6296097849209872</v>
+        <v>5.6055028423616751</v>
       </c>
       <c r="R38">
-        <v>0.79644943324912665</v>
+        <v>2.0050575355037163</v>
       </c>
       <c r="S38">
-        <v>0.79644943324912665</v>
+        <v>2.0050575355037163</v>
       </c>
       <c r="T38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f>MAX(I38:N38)</f>
+        <v>0.72821696397857394</v>
+      </c>
+      <c r="V38">
+        <f>MATCH(U38,I38:N38,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W38" t="str">
+        <f>VLOOKUP(V38,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>28</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C39">
-        <v>0.14285714285714285</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="G39">
-        <v>7.1428571428571425E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="H39">
-        <v>0.7857142857142857</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="I39">
-        <v>-1.6723421014883622</v>
+        <v>-2.0338902482864629</v>
       </c>
       <c r="J39">
-        <v>-1.4562778620412116</v>
+        <v>-0.79880656105230741</v>
       </c>
       <c r="K39">
-        <v>-1.115918259078639</v>
+        <v>-0.59451421782081215</v>
       </c>
       <c r="L39">
-        <v>-1.0292161162799522</v>
+        <v>-0.51120340849569057</v>
       </c>
       <c r="M39">
-        <v>-0.21328383288824748</v>
+        <v>-1.3661136142145331</v>
       </c>
       <c r="N39">
-        <v>2.0805797981861827</v>
+        <v>2.2132904464327017</v>
       </c>
       <c r="O39">
-        <v>28.743691293260365</v>
+        <v>25.700741964231064</v>
       </c>
       <c r="P39">
-        <v>21.879604606858138</v>
+        <v>21.411709354877807</v>
       </c>
       <c r="Q39">
-        <v>13.283906889519354</v>
+        <v>16.30468197687949</v>
       </c>
       <c r="R39">
-        <v>4.7384718757526034</v>
+        <v>4.5488039298924079</v>
       </c>
       <c r="S39">
-        <v>4.7384718757526034</v>
+        <v>4.5488039298924079</v>
       </c>
       <c r="T39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f>MAX(I39:N39)</f>
+        <v>2.2132904464327017</v>
+      </c>
+      <c r="V39">
+        <f>MATCH(U39,I39:N39,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W39" t="str">
+        <f>VLOOKUP(V39,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>0.10526315789473684</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="D40">
-        <v>2.6315789473684209E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="E40">
-        <v>2.6315789473684209E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="F40">
-        <v>2.6315789473684209E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="G40">
-        <v>2.6315789473684209E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="H40">
-        <v>0.78947368421052633</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="I40">
-        <v>-2.0338902482864629</v>
+        <v>-0.86875018275597926</v>
       </c>
       <c r="J40">
-        <v>-0.96317438629953345</v>
+        <v>-0.7491860855059751</v>
       </c>
       <c r="K40">
-        <v>-0.33381219719189875</v>
+        <v>5.5923202306488425E-3</v>
       </c>
       <c r="L40">
-        <v>-0.25219705460355968</v>
+        <v>-0.47210810979499152</v>
       </c>
       <c r="M40">
-        <v>-1.1784436498125797</v>
+        <v>-0.12678366061672713</v>
       </c>
       <c r="N40">
-        <v>2.1039993243473334</v>
+        <v>0.94716310755692079</v>
       </c>
       <c r="O40">
-        <v>23.481625611616167</v>
+        <v>11.451794831608046</v>
       </c>
       <c r="P40">
-        <v>20.339311803610286</v>
+        <v>10.053017454232851</v>
       </c>
       <c r="Q40">
-        <v>15.435907479059331</v>
+        <v>4.1645844597242379</v>
       </c>
       <c r="R40">
-        <v>3.520281459442494</v>
+        <v>0.37136689650475152</v>
       </c>
       <c r="S40">
-        <v>3.520281459442494</v>
+        <v>0.37136689650475152</v>
       </c>
       <c r="T40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f>MAX(I40:N40)</f>
+        <v>0.94716310755692079</v>
+      </c>
+      <c r="V40">
+        <f>MATCH(U40,I40:N40,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W40" t="str">
+        <f>VLOOKUP(V40,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C41">
-        <v>0.28048780487804881</v>
+        <v>0.15135135135135136</v>
       </c>
       <c r="D41">
-        <v>4.2682926829268296E-2</v>
+        <v>4.8648648648648651E-2</v>
       </c>
       <c r="E41">
-        <v>2.4390243902439025E-2</v>
+        <v>3.783783783783784E-2</v>
       </c>
       <c r="F41">
-        <v>4.878048780487805E-2</v>
+        <v>3.2432432432432434E-2</v>
       </c>
       <c r="G41">
-        <v>4.2682926829268296E-2</v>
+        <v>5.9459459459459463E-2</v>
       </c>
       <c r="H41">
-        <v>0.56097560975609762</v>
+        <v>0.67027027027027031</v>
       </c>
       <c r="I41">
-        <v>-0.34872315430799722</v>
+        <v>-1.5906517634550614</v>
       </c>
       <c r="J41">
-        <v>-0.65648807821629462</v>
+        <v>-0.54470278796740657</v>
       </c>
       <c r="K41">
-        <v>-0.3910394700128797</v>
+        <v>8.6234299044578334E-3</v>
       </c>
       <c r="L41">
-        <v>0.41111190048604385</v>
+        <v>-7.159262405174939E-2</v>
       </c>
       <c r="M41">
-        <v>-0.82827896013576385</v>
+        <v>-0.46935551404519854</v>
       </c>
       <c r="N41">
-        <v>0.68054910011350689</v>
+        <v>1.3614104569889092</v>
       </c>
       <c r="O41">
-        <v>11.305342252990448</v>
+        <v>13.964360094706823</v>
       </c>
       <c r="P41">
-        <v>8.1973656469583229</v>
+        <v>11.679479922462054</v>
       </c>
       <c r="Q41">
-        <v>4.4827515203026538</v>
+        <v>8.6296097849209872</v>
       </c>
       <c r="R41">
-        <v>0.93945435222875828</v>
+        <v>0.79644943324912665</v>
       </c>
       <c r="S41">
-        <v>0.93945435222875828</v>
+        <v>0.79644943324912665</v>
       </c>
       <c r="T41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f>MAX(I41:N41)</f>
+        <v>1.3614104569889092</v>
+      </c>
+      <c r="V41">
+        <f>MATCH(U41,I41:N41,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W41" t="str">
+        <f>VLOOKUP(V41,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C42">
-        <v>0.20183486238532111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D42">
-        <v>3.669724770642202E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>5.5045871559633031E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3.669724770642202E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="H42">
-        <v>0.66972477064220182</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I42">
-        <v>-1.1051427152271212</v>
+        <v>-1.6723421014883622</v>
       </c>
       <c r="J42">
-        <v>-0.76864732706199068</v>
+        <v>-1.4562778620412116</v>
       </c>
       <c r="K42">
         <v>-1.115918259078639</v>
       </c>
       <c r="L42">
-        <v>0.59610815952020857</v>
+        <v>-1.0292161162799522</v>
       </c>
       <c r="M42">
-        <v>-0.95633882955705662</v>
+        <v>-0.21328383288824748</v>
       </c>
       <c r="N42">
-        <v>1.3580122158013301</v>
+        <v>2.0805797981861827</v>
       </c>
       <c r="O42">
-        <v>19.696232545997074</v>
+        <v>28.743691293260365</v>
       </c>
       <c r="P42">
-        <v>12.042838932918757</v>
+        <v>21.879604606858138</v>
       </c>
       <c r="Q42">
-        <v>9.9250228108478229</v>
+        <v>13.283906889519354</v>
       </c>
       <c r="R42">
-        <v>2.1598622771312237</v>
+        <v>4.7384718757526034</v>
       </c>
       <c r="S42">
-        <v>2.1598622771312237</v>
+        <v>4.7384718757526034</v>
       </c>
       <c r="T42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <f>MAX(I42:N42)</f>
+        <v>2.0805797981861827</v>
+      </c>
+      <c r="V42">
+        <f>MATCH(U42,I42:N42,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W42" t="str">
+        <f>VLOOKUP(V42,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C43">
-        <v>0.20454545454545456</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D43">
-        <v>4.5454545454545456E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F43">
-        <v>4.5454545454545456E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="G43">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="H43">
-        <v>0.61363636363636365</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="I43">
-        <v>-1.0790744606060236</v>
+        <v>-2.0338902482864629</v>
       </c>
       <c r="J43">
-        <v>-0.60455367666922211</v>
+        <v>-0.96317438629953345</v>
       </c>
       <c r="K43">
-        <v>-1.115918259078639</v>
+        <v>-0.33381219719189875</v>
       </c>
       <c r="L43">
-        <v>0.31290771752472596</v>
+        <v>-0.25219705460355968</v>
       </c>
       <c r="M43">
-        <v>0.203489724419987</v>
+        <v>-1.1784436498125797</v>
       </c>
       <c r="N43">
-        <v>1.0086042143553424</v>
+        <v>2.1039993243473334</v>
       </c>
       <c r="O43">
-        <v>17.025243928550079</v>
+        <v>23.481625611616167</v>
       </c>
       <c r="P43">
-        <v>8.1516445289055337</v>
+        <v>20.339311803610286</v>
       </c>
       <c r="Q43">
-        <v>6.5699781864490783</v>
+        <v>15.435907479059331</v>
       </c>
       <c r="R43">
-        <v>1.8136042652845104</v>
+        <v>3.520281459442494</v>
       </c>
       <c r="S43">
-        <v>1.8136042652845104</v>
+        <v>3.520281459442494</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <f>MAX(I43:N43)</f>
+        <v>2.1039993243473334</v>
+      </c>
+      <c r="V43">
+        <f>MATCH(U43,I43:N43,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W43" t="str">
+        <f>VLOOKUP(V43,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C44">
-        <v>0.34090909090909088</v>
+        <v>0.28048780487804881</v>
       </c>
       <c r="D44">
-        <v>4.5454545454545456E-2</v>
+        <v>4.2682926829268296E-2</v>
       </c>
       <c r="E44">
-        <v>4.5454545454545456E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="F44">
-        <v>4.5454545454545456E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="G44">
-        <v>4.5454545454545456E-2</v>
+        <v>4.2682926829268296E-2</v>
       </c>
       <c r="H44">
-        <v>0.47727272727272729</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="I44">
-        <v>0.23235927187072389</v>
+        <v>-0.34872315430799722</v>
       </c>
       <c r="J44">
-        <v>-0.60455367666922211</v>
+        <v>-0.65648807821629462</v>
       </c>
       <c r="K44">
-        <v>0.23499221145300322</v>
+        <v>-0.3910394700128797</v>
       </c>
       <c r="L44">
-        <v>0.31290771752472596</v>
+        <v>0.41111190048604385</v>
       </c>
       <c r="M44">
-        <v>-0.7689819092992265</v>
+        <v>-0.82827896013576385</v>
       </c>
       <c r="N44">
-        <v>0.15911412905543101</v>
+        <v>0.68054910011350689</v>
       </c>
       <c r="O44">
-        <v>6.9427512989818982</v>
+        <v>11.305342252990448</v>
       </c>
       <c r="P44">
-        <v>7.7428991649833083</v>
+        <v>8.1973656469583229</v>
       </c>
       <c r="Q44">
-        <v>2.7439031150061348</v>
+        <v>4.4827515203026538</v>
       </c>
       <c r="R44">
-        <v>2.2671262337565596</v>
+        <v>0.93945435222875828</v>
       </c>
       <c r="S44">
-        <v>2.2671262337565596</v>
+        <v>0.93945435222875828</v>
       </c>
       <c r="T44">
         <v>4</v>
+      </c>
+      <c r="U44">
+        <f>MAX(I44:N44)</f>
+        <v>0.68054910011350689</v>
+      </c>
+      <c r="V44">
+        <f>MATCH(U44,I44:N44,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W44" t="str">
+        <f>VLOOKUP(V44,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45">
+        <v>0.20183486238532111</v>
+      </c>
+      <c r="D45">
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="G45">
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.66972477064220182</v>
+      </c>
+      <c r="I45">
+        <v>-1.1051427152271212</v>
+      </c>
+      <c r="J45">
+        <v>-0.76864732706199068</v>
+      </c>
+      <c r="K45">
+        <v>-1.115918259078639</v>
+      </c>
+      <c r="L45">
+        <v>0.59610815952020857</v>
+      </c>
+      <c r="M45">
+        <v>-0.95633882955705662</v>
+      </c>
+      <c r="N45">
+        <v>1.3580122158013301</v>
+      </c>
+      <c r="O45">
+        <v>19.696232545997074</v>
+      </c>
+      <c r="P45">
+        <v>12.042838932918757</v>
+      </c>
+      <c r="Q45">
+        <v>9.9250228108478229</v>
+      </c>
+      <c r="R45">
+        <v>2.1598622771312237</v>
+      </c>
+      <c r="S45">
+        <v>2.1598622771312237</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <f>MAX(I45:N45)</f>
+        <v>1.3580122158013301</v>
+      </c>
+      <c r="V45">
+        <f>MATCH(U45,I45:N45,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W45" t="str">
+        <f>VLOOKUP(V45,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="D46">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G46">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="I46">
+        <v>-1.0790744606060236</v>
+      </c>
+      <c r="J46">
+        <v>-0.60455367666922211</v>
+      </c>
+      <c r="K46">
+        <v>-1.115918259078639</v>
+      </c>
+      <c r="L46">
+        <v>0.31290771752472596</v>
+      </c>
+      <c r="M46">
+        <v>0.203489724419987</v>
+      </c>
+      <c r="N46">
+        <v>1.0086042143553424</v>
+      </c>
+      <c r="O46">
+        <v>17.025243928550079</v>
+      </c>
+      <c r="P46">
+        <v>8.1516445289055337</v>
+      </c>
+      <c r="Q46">
+        <v>6.5699781864490783</v>
+      </c>
+      <c r="R46">
+        <v>1.8136042652845104</v>
+      </c>
+      <c r="S46">
+        <v>1.8136042652845104</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <f>MAX(I46:N46)</f>
+        <v>1.0086042143553424</v>
+      </c>
+      <c r="V46">
+        <f>MATCH(U46,I46:N46,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="W46" t="str">
+        <f>VLOOKUP(V46,AA$2:AB$7,2,FALSE)</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>0.34090909090909088</v>
+      </c>
+      <c r="D47">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="E47">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="F47">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G47">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="I47">
+        <v>0.23235927187072389</v>
+      </c>
+      <c r="J47">
+        <v>-0.60455367666922211</v>
+      </c>
+      <c r="K47">
+        <v>0.23499221145300322</v>
+      </c>
+      <c r="L47">
+        <v>0.31290771752472596</v>
+      </c>
+      <c r="M47">
+        <v>-0.7689819092992265</v>
+      </c>
+      <c r="N47">
+        <v>0.15911412905543101</v>
+      </c>
+      <c r="O47">
+        <v>6.9427512989818982</v>
+      </c>
+      <c r="P47">
+        <v>7.7428991649833083</v>
+      </c>
+      <c r="Q47">
+        <v>2.7439031150061348</v>
+      </c>
+      <c r="R47">
+        <v>2.2671262337565596</v>
+      </c>
+      <c r="S47">
+        <v>2.2671262337565596</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <f>MAX(I47:N47)</f>
+        <v>0.31290771752472596</v>
+      </c>
+      <c r="V47">
+        <f>MATCH(U47,I47:N47,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="W47" t="str">
+        <f>VLOOKUP(V47,AA$2:AB$7,2,FALSE)</f>
+        <v>Nonprofit</v>
       </c>
     </row>
   </sheetData>

--- a/tabula-Postdoc-CareerOutcome-GR.xlsx
+++ b/tabula-Postdoc-CareerOutcome-GR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grams\Desktop\Business Analytics\Miniproject 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11750369-9E73-41B2-8E83-89940B1E2543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5227E06A-68F6-4758-B28F-8C953B94240B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="16560" yWindow="9150" windowWidth="20910" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-Postdoc-CareerOutcome-AD" sheetId="1" r:id="rId1"/>
@@ -9250,18 +9250,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="15" max="19" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -9320,7 +9321,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9390,17 +9391,29 @@
         <v>3</v>
       </c>
       <c r="W2" t="str">
-        <f>VLOOKUP(V2,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V2,AC$2:AD$7,2,FALSE)</f>
         <v>Government</v>
       </c>
-      <c r="AA2">
+      <c r="Y2">
+        <f>MIN(M2:R2)</f>
+        <v>-1.4297469564129219</v>
+      </c>
+      <c r="Z2">
+        <f>MATCH(Y2,M2:R2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>VLOOKUP(Z2,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9470,17 +9483,29 @@
         <v>3</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W8" si="1">VLOOKUP(V3,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V3,AC$2:AD$7,2,FALSE)</f>
         <v>Government</v>
       </c>
-      <c r="AA3">
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y8" si="1">MIN(M3:R3)</f>
+        <v>-0.52567889889041586</v>
+      </c>
+      <c r="Z3">
+        <f>MATCH(Y3,M3:R3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA8" si="2">VLOOKUP(Z3,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -9550,17 +9575,29 @@
         <v>3</v>
       </c>
       <c r="W4" t="str">
+        <f>VLOOKUP(V4,AC$2:AD$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="1"/>
-        <v>Government</v>
-      </c>
-      <c r="AA4">
+        <v>-0.61543375660671917</v>
+      </c>
+      <c r="Z4">
+        <f>MATCH(Y4,M4:R4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="2"/>
+        <v>Academia</v>
+      </c>
+      <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -9626,21 +9663,33 @@
         <v>1.1702379218210632</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V8" si="2">MATCH(U5,I5:N5,FALSE)</f>
+        <f t="shared" ref="V5:V8" si="3">MATCH(U5,I5:N5,FALSE)</f>
         <v>3</v>
       </c>
       <c r="W5" t="str">
+        <f>VLOOKUP(V5,AC$2:AD$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="1"/>
-        <v>Government</v>
-      </c>
-      <c r="AA5">
+        <v>-1.0570362067371772</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z8" si="4">MATCH(Y5,M5:R5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="2"/>
+        <v>For-Profit</v>
+      </c>
+      <c r="AC5">
         <v>4</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39</v>
       </c>
@@ -9706,21 +9755,33 @@
         <v>2.0847003941809441</v>
       </c>
       <c r="V6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W6" t="str">
+        <f>VLOOKUP(V6,AC$2:AD$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>-0.801463121245238</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA6" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="1"/>
-        <v>Government</v>
-      </c>
-      <c r="AA6">
+        <v>For-Profit</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -9786,21 +9847,33 @@
         <v>1.8560847760909738</v>
       </c>
       <c r="V7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W7" t="str">
+        <f>VLOOKUP(V7,AC$2:AD$7,2,FALSE)</f>
+        <v>Government</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>-0.47800343491950265</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA7" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="1"/>
-        <v>Government</v>
-      </c>
-      <c r="AA7">
+        <v>For-Profit</v>
+      </c>
+      <c r="AC7">
         <v>6</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42</v>
       </c>
@@ -9866,15 +9939,27 @@
         <v>1.824275780618676</v>
       </c>
       <c r="V8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W8" t="str">
+        <f>VLOOKUP(V8,AC$2:AD$7,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>-1.7758355096832563</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA8" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="1"/>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9944,11 +10029,23 @@
         <v>2</v>
       </c>
       <c r="W10" t="str">
-        <f>VLOOKUP(V10,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V10,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f>MIN(M10:R10)</f>
+        <v>-1.2567026797777547</v>
+      </c>
+      <c r="Z10">
+        <f>MATCH(Y10,M10:R10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>VLOOKUP(Z10,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -10018,11 +10115,23 @@
         <v>4</v>
       </c>
       <c r="W11" t="str">
-        <f>VLOOKUP(V11,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V11,AC$2:AD$7,2,FALSE)</f>
         <v>Nonprofit</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f t="shared" ref="Y11:Y16" si="5">MIN(M11:R11)</f>
+        <v>-1.7414535430184401</v>
+      </c>
+      <c r="Z11">
+        <f>MATCH(Y11,M11:R11,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" ref="AA11:AA16" si="6">VLOOKUP(Z11,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>29</v>
       </c>
@@ -10092,11 +10201,23 @@
         <v>2</v>
       </c>
       <c r="W12" t="str">
-        <f>VLOOKUP(V12,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V12,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>-0.82063110265713346</v>
+      </c>
+      <c r="Z12">
+        <f>MATCH(Y12,M12:R12,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="6"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -10166,11 +10287,23 @@
         <v>2</v>
       </c>
       <c r="W13" t="str">
-        <f>VLOOKUP(V13,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V13,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>-0.54167066877583792</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:Z16" si="7">MATCH(Y13,M13:R13,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="6"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -10240,11 +10373,23 @@
         <v>5</v>
       </c>
       <c r="W14" t="str">
-        <f>VLOOKUP(V14,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V14,AC$2:AD$7,2,FALSE)</f>
         <v>Other</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>-0.51898760570151603</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="6"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10314,11 +10459,23 @@
         <v>2</v>
       </c>
       <c r="W15" t="str">
-        <f>VLOOKUP(V15,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V15,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>0.11747245820739598</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="6"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -10388,11 +10545,23 @@
         <v>5</v>
       </c>
       <c r="W16" t="str">
-        <f>VLOOKUP(V16,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V16,AC$2:AD$7,2,FALSE)</f>
         <v>Other</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>-1.3765025636021011</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="6"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -10462,11 +10631,23 @@
         <v>5</v>
       </c>
       <c r="W18" t="str">
-        <f>VLOOKUP(V18,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V18,AC$2:AD$7,2,FALSE)</f>
         <v>Other</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f>MIN(M18:R18)</f>
+        <v>0.30069580993874945</v>
+      </c>
+      <c r="Z18">
+        <f>MATCH(Y18,M18:R18,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA18" t="str">
+        <f>VLOOKUP(Z18,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -10536,11 +10717,23 @@
         <v>1</v>
       </c>
       <c r="W19" t="str">
-        <f>VLOOKUP(V19,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V19,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y24" si="8">MIN(M19:R19)</f>
+        <v>-0.7689819092992265</v>
+      </c>
+      <c r="Z19">
+        <f>MATCH(Y19,M19:R19,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19:AA24" si="9">VLOOKUP(Z19,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -10610,11 +10803,23 @@
         <v>2</v>
       </c>
       <c r="W20" t="str">
-        <f>VLOOKUP(V20,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V20,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f t="shared" si="8"/>
+        <v>-0.73756984987225349</v>
+      </c>
+      <c r="Z20">
+        <f>MATCH(Y20,M20:R20,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="9"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -10684,11 +10889,23 @@
         <v>1</v>
       </c>
       <c r="W21" t="str">
-        <f>VLOOKUP(V21,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V21,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f t="shared" si="8"/>
+        <v>-0.92634542438334466</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21:Z24" si="10">MATCH(Y21,M21:R21,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="9"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -10758,11 +10975,23 @@
         <v>4</v>
       </c>
       <c r="W22" t="str">
-        <f>VLOOKUP(V22,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V22,AC$2:AD$7,2,FALSE)</f>
         <v>Nonprofit</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <f t="shared" si="8"/>
+        <v>-0.5299167179100529</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="9"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -10832,11 +11061,23 @@
         <v>1</v>
       </c>
       <c r="W23" t="str">
-        <f>VLOOKUP(V23,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V23,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <f t="shared" si="8"/>
+        <v>-0.58924618418496721</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="9"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -10906,11 +11147,23 @@
         <v>1</v>
       </c>
       <c r="W24" t="str">
-        <f>VLOOKUP(V24,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V24,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <f t="shared" si="8"/>
+        <v>-0.85002121210916104</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="9"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -10980,11 +11233,23 @@
         <v>2</v>
       </c>
       <c r="W25" t="str">
-        <f>VLOOKUP(V25,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V25,AC$2:AD$7,2,FALSE)</f>
         <v>For-Profit</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <f>MIN(M25:R25)</f>
+        <v>-0.91859292987141317</v>
+      </c>
+      <c r="Z25">
+        <f>MATCH(Y25,M25:R25,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>VLOOKUP(Z25,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -11054,11 +11319,23 @@
         <v>6</v>
       </c>
       <c r="W26" t="str">
-        <f>VLOOKUP(V26,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V26,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f t="shared" ref="Y26:Y31" si="11">MIN(M26:R26)</f>
+        <v>-0.81795530092537394</v>
+      </c>
+      <c r="Z26">
+        <f>MATCH(Y26,M26:R26,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" ref="AA26:AA31" si="12">VLOOKUP(Z26,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -11128,11 +11405,23 @@
         <v>1</v>
       </c>
       <c r="W27" t="str">
-        <f>VLOOKUP(V27,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V27,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>-0.21843701996675183</v>
+      </c>
+      <c r="Z27">
+        <f>MATCH(Y27,M27:R27,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="12"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -11202,11 +11491,23 @@
         <v>3</v>
       </c>
       <c r="W28" t="str">
-        <f>VLOOKUP(V28,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V28,AC$2:AD$7,2,FALSE)</f>
         <v>Government</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>4.1411118800117941E-2</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28:Z31" si="13">MATCH(Y28,M28:R28,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="12"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -11276,11 +11577,23 @@
         <v>1</v>
       </c>
       <c r="W29" t="str">
-        <f>VLOOKUP(V29,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V29,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>-7.9754440740949159E-2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="12"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -11350,11 +11663,23 @@
         <v>1</v>
       </c>
       <c r="W30" t="str">
-        <f>VLOOKUP(V30,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V30,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>-0.60360008731599479</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="12"/>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -11424,11 +11749,23 @@
         <v>1</v>
       </c>
       <c r="W31" t="str">
-        <f>VLOOKUP(V31,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V31,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>-1.0931391205389644</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="12"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -11498,11 +11835,23 @@
         <v>1</v>
       </c>
       <c r="W32" t="str">
-        <f>VLOOKUP(V32,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V32,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <f>MIN(M32:R32)</f>
+        <v>-0.33727465572825222</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32:Z33" si="14">MATCH(Y32,M32:R32,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AA32" t="str">
+        <f>VLOOKUP(Z32,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -11572,11 +11921,23 @@
         <v>1</v>
       </c>
       <c r="W33" t="str">
-        <f>VLOOKUP(V33,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V33,AC$2:AD$7,2,FALSE)</f>
         <v>Academia</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <f t="shared" ref="Y32:Y33" si="15">MIN(M33:R33)</f>
+        <v>-0.99713626482500395</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" ref="AA32:AA33" si="16">VLOOKUP(Z33,AC$2:AD$7,2,FALSE)</f>
+        <v>For-Profit</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18</v>
       </c>
@@ -11646,11 +12007,23 @@
         <v>6</v>
       </c>
       <c r="W35" t="str">
-        <f>VLOOKUP(V35,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V35,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <f>MIN(M35:R35)</f>
+        <v>-0.67173474592730509</v>
+      </c>
+      <c r="Z35">
+        <f>MATCH(Y35,M35:R35,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA35" t="str">
+        <f>VLOOKUP(Z35,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
@@ -11720,11 +12093,23 @@
         <v>6</v>
       </c>
       <c r="W36" t="str">
-        <f>VLOOKUP(V36,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V36,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <f t="shared" ref="Y36:Y41" si="17">MIN(M36:R36)</f>
+        <v>-1.7414535430184401</v>
+      </c>
+      <c r="Z36">
+        <f>MATCH(Y36,M36:R36,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" ref="AA36:AA41" si="18">VLOOKUP(Z36,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -11794,11 +12179,23 @@
         <v>4</v>
       </c>
       <c r="W37" t="str">
-        <f>VLOOKUP(V37,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V37,AC$2:AD$7,2,FALSE)</f>
         <v>Nonprofit</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <f t="shared" si="17"/>
+        <v>3.6120719210151905E-2</v>
+      </c>
+      <c r="Z37">
+        <f>MATCH(Y37,M37:R37,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="18"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25</v>
       </c>
@@ -11868,11 +12265,23 @@
         <v>6</v>
       </c>
       <c r="W38" t="str">
-        <f>VLOOKUP(V38,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V38,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <f t="shared" si="17"/>
+        <v>-6.3463273071561868E-2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ref="Z38:Z41" si="19">MATCH(Y38,M38:R38,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="18"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>28</v>
       </c>
@@ -11942,11 +12351,23 @@
         <v>6</v>
       </c>
       <c r="W39" t="str">
-        <f>VLOOKUP(V39,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V39,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <f t="shared" si="17"/>
+        <v>-1.3661136142145331</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="18"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -12016,11 +12437,23 @@
         <v>6</v>
       </c>
       <c r="W40" t="str">
-        <f>VLOOKUP(V40,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V40,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <f t="shared" si="17"/>
+        <v>-0.12678366061672713</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="18"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -12090,11 +12523,23 @@
         <v>6</v>
       </c>
       <c r="W41" t="str">
-        <f>VLOOKUP(V41,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V41,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <f t="shared" si="17"/>
+        <v>-0.46935551404519854</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="18"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -12164,11 +12609,23 @@
         <v>6</v>
       </c>
       <c r="W42" t="str">
-        <f>VLOOKUP(V42,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V42,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <f>MIN(M42:R42)</f>
+        <v>-0.21328383288824748</v>
+      </c>
+      <c r="Z42">
+        <f>MATCH(Y42,M42:R42,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA42" t="str">
+        <f>VLOOKUP(Z42,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -12238,11 +12695,23 @@
         <v>6</v>
       </c>
       <c r="W43" t="str">
-        <f>VLOOKUP(V43,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V43,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <f t="shared" ref="Y43:Y48" si="20">MIN(M43:R43)</f>
+        <v>-1.1784436498125797</v>
+      </c>
+      <c r="Z43">
+        <f>MATCH(Y43,M43:R43,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" ref="AA43:AA48" si="21">VLOOKUP(Z43,AC$2:AD$7,2,FALSE)</f>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
@@ -12312,11 +12781,23 @@
         <v>6</v>
       </c>
       <c r="W44" t="str">
-        <f>VLOOKUP(V44,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V44,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <f t="shared" si="20"/>
+        <v>-0.82827896013576385</v>
+      </c>
+      <c r="Z44">
+        <f>MATCH(Y44,M44:R44,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="21"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
@@ -12383,11 +12864,23 @@
         <v>6</v>
       </c>
       <c r="W45" t="str">
-        <f>VLOOKUP(V45,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V45,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <f t="shared" si="20"/>
+        <v>-0.95633882955705662</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" ref="Z45:Z48" si="22">MATCH(Y45,M45:R45,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="21"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>154</v>
       </c>
@@ -12454,11 +12947,23 @@
         <v>6</v>
       </c>
       <c r="W46" t="str">
-        <f>VLOOKUP(V46,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V46,AC$2:AD$7,2,FALSE)</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <f t="shared" si="20"/>
+        <v>0.203489724419987</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="21"/>
+        <v>Academia</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>160</v>
       </c>
@@ -12525,8 +13030,20 @@
         <v>4</v>
       </c>
       <c r="W47" t="str">
-        <f>VLOOKUP(V47,AA$2:AB$7,2,FALSE)</f>
+        <f>VLOOKUP(V47,AC$2:AD$7,2,FALSE)</f>
         <v>Nonprofit</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="20"/>
+        <v>-0.7689819092992265</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="21"/>
+        <v>Academia</v>
       </c>
     </row>
   </sheetData>
